--- a/c3-inferência/cap3-inferencia.xlsx
+++ b/c3-inferência/cap3-inferencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedrocruz\Documents\GitHub\bioestatistica-ua\c3-inferência\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC8868C-B643-4A20-960C-D8D07E19BC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DB520E-574B-4018-BFEB-9E2D78695E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dist N(0,1)" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="102">
   <si>
     <t>=DIST.NORMAL(1,96; 0; 1; VERDADEIRO)</t>
   </si>
@@ -165,9 +165,6 @@
     <t>= grau de confiança de 0 a 1</t>
   </si>
   <si>
-    <t>Intervalo de confiança para população normal com variância conhecida</t>
-  </si>
-  <si>
     <t>estatísticas amostrais</t>
   </si>
   <si>
@@ -216,12 +213,6 @@
     <t>Intervalo Z</t>
   </si>
   <si>
-    <t>Testes de hipóteses para população normal com variância conhecida</t>
-  </si>
-  <si>
-    <t>Intervalo de confiança para população normal com variância desconhecida</t>
-  </si>
-  <si>
     <t>Intervalo T</t>
   </si>
   <si>
@@ -234,9 +225,6 @@
     <t>= quantil t ( 1-alfa/2; n-1 graus de liberdade)</t>
   </si>
   <si>
-    <t>Testes de hipóteses para população normal com variância desconhecida</t>
-  </si>
-  <si>
     <t>Testes T</t>
   </si>
   <si>
@@ -255,9 +243,6 @@
     <t>=2 x mínimo(pv esq, pv dir)</t>
   </si>
   <si>
-    <t>Intervalo de confiança para uma proporção</t>
-  </si>
-  <si>
     <t>Intervalo Z quando n&gt;=30</t>
   </si>
   <si>
@@ -298,9 +283,6 @@
   </si>
   <si>
     <t>=p + z(1 - alfa/2) * sqrt( p*(1-p)/n )</t>
-  </si>
-  <si>
-    <t>Testes de hipóteses para prporções</t>
   </si>
   <si>
     <t>Testes Z aproximados (n&gt;=30)</t>
@@ -396,12 +378,48 @@
   <si>
     <t>Promover o Português em todas as opções.</t>
   </si>
+  <si>
+    <t>Modificar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valores </t>
+  </si>
+  <si>
+    <t>com amarelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os azuis </t>
+  </si>
+  <si>
+    <t>são</t>
+  </si>
+  <si>
+    <t>calculados</t>
+  </si>
+  <si>
+    <t>INTERVALOS DE CONFIANÇA para população normal com variância conhecida</t>
+  </si>
+  <si>
+    <t>INTERVALOS DE CONFIANÇA para população normal com variância desconhecida</t>
+  </si>
+  <si>
+    <t>INTERVALOS DE CONFIANÇA para uma proporção</t>
+  </si>
+  <si>
+    <t>TESTES DE HIPÓTESES para população normal com variância conhecida</t>
+  </si>
+  <si>
+    <t>TESTES DE HIPÓTESES para população normal com variância desconhecida</t>
+  </si>
+  <si>
+    <t>TESTES DE HIPÓTESES para proporções</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,8 +458,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,8 +499,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -481,12 +514,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -494,19 +564,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -521,12 +579,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -541,16 +593,75 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -845,16 +956,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="23"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="21"/>
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -869,10 +980,10 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -887,10 +998,10 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="22"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -905,7 +1016,7 @@
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="8"/>
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -932,26 +1043,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="21"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -966,10 +1077,10 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -981,10 +1092,10 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="22"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
@@ -996,7 +1107,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C16" s="3"/>
@@ -1018,7 +1129,7 @@
   <dimension ref="B2:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,40 +1138,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="24"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C7">
@@ -1072,7 +1183,7 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C8">
@@ -1081,10 +1192,10 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="22"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -1105,7 +1216,7 @@
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
+      <c r="B23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1122,258 +1233,279 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBA85D7-9C63-4E22-A4EF-A5C42C686304}">
-  <dimension ref="D2:J33"/>
+  <dimension ref="C2:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D2" s="5" t="s">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C2" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+    </row>
+    <row r="3" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="17">
+        <f>1-D4</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="I5" s="32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="7"/>
+      <c r="F6" s="1"/>
+      <c r="I6" s="33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D4" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="19">
-        <v>0.95</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D5" s="13" t="s">
+      <c r="F7" s="1"/>
+      <c r="I7" s="34"/>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="13">
+        <v>12.1</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="I8" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="13">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="I9" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="13">
+        <v>100</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="I10" s="35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="17">
+        <f>D8-_xlfn.CONFIDENCE.NORM(1-D4,D9,D10)</f>
+        <v>10.140036015459946</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="17">
+        <f>D8+_xlfn.CONFIDENCE.NORM(1-D4,D9,D10)</f>
+        <v>14.059963984540053</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="43">
+        <f>_xlfn.NORM.INV(1-D5/2,0,1)</f>
+        <v>1.9599639845400536</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="30">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="30">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="17">
+        <f>(D25-D22)/(D26/SQRT(D27))</f>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="23">
-        <f>1-E4</f>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="11"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="26">
-        <v>12.1</v>
-      </c>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D9" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="26">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="26">
-        <v>100</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13">
-        <f>E8-_xlfn.CONFIDENCE.NORM(1-E4,E9,E10)</f>
-        <v>10.140036015459946</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14">
-        <f>E8+_xlfn.CONFIDENCE.NORM(1-E4,E9,E10)</f>
-        <v>14.059963984540053</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16">
-        <f>_xlfn.NORM.INV(1-E5/2,0,1)</f>
-        <v>1.9599639845400536</v>
-      </c>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D22" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="25">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D24" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D25" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="25">
-        <v>12.1</v>
-      </c>
-    </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D26" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D27" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D28" s="11"/>
-    </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D29" s="13" t="s">
+      <c r="D31" s="17">
+        <f>_xlfn.NORM.DIST($D$29, 0, 1, TRUE)</f>
+        <v>0.81593987465324058</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E29">
-        <f>(E25-E22)/(E26/SQRT(E27))</f>
-        <v>0.90000000000000036</v>
-      </c>
-      <c r="G29" s="1" t="s">
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="17">
+        <f>1 - _xlfn.NORM.DIST($D$29, 0, 1, TRUE)</f>
+        <v>0.18406012534675942</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D31" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31">
-        <f>_xlfn.NORM.DIST($E$29, 0, 1, TRUE)</f>
-        <v>0.81593987465324058</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D32" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32">
-        <f>1 - _xlfn.NORM.DIST($E$29, 0, 1, TRUE)</f>
-        <v>0.18406012534675942</v>
-      </c>
-      <c r="G32" s="1" t="s">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D33" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33">
-        <f>MIN(E31*2,E32*2)</f>
+      <c r="D33" s="17">
+        <f>MIN(D31*2,D32*2)</f>
         <v>0.36812025069351884</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>62</v>
+      <c r="F33" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C19:I19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1382,331 +1514,359 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC50AAE1-8B7D-4840-B979-DB89DF4E1E7B}">
-  <dimension ref="B2:Q33"/>
+  <dimension ref="C2:R33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+      <selection activeCell="C20" sqref="C20:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C2" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+    </row>
+    <row r="3" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+    </row>
+    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C4" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="18">
+        <v>0.95</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="F5" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="17">
+        <f>1-G4</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="L5" s="37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="F6" s="7"/>
+      <c r="I6" s="1"/>
+      <c r="L6" s="38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C7" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="I7" s="1"/>
+      <c r="L7" s="39"/>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C8" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="18">
+        <v>12.1</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="L8" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C9" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="18">
+        <v>10</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="L9" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="18">
+        <v>100</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="L10" s="40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C12" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="E13" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="17">
+        <f>G8-_xlfn.CONFIDENCE.T(1-G4,G9,G10)</f>
+        <v>10.115783048413583</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="E14" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="17">
+        <f>G8+_xlfn.CONFIDENCE.T(1-G4,G9,G10)</f>
+        <v>14.084216951586416</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="E16" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="F16" s="28"/>
+      <c r="G16" s="17">
+        <f>_xlfn.T.INV(1-G5/2,G10-1)</f>
+        <v>1.9842169515864165</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="25">
-        <v>0.95</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E5" s="11" t="s">
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C19" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C20" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C22" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="18">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C24" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C25" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="18">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C26" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C27" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F29" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="43">
+        <f>(G25-G22)/(G26/SQRT(G27))</f>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F5">
-        <f>1-F4</f>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E6" s="11"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="25">
-        <v>12.1</v>
-      </c>
-      <c r="H8" s="14"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="25">
-        <v>10</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="Q9" s="8"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="25">
-        <v>100</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="28"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13">
-        <f>F8-_xlfn.CONFIDENCE.T(1-F4,F9,F10)</f>
-        <v>10.115783048413583</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14">
-        <f>F8+_xlfn.CONFIDENCE.T(1-F4,F9,F10)</f>
-        <v>14.084216951586416</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E16" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16">
-        <f>_xlfn.T.INV(1-F5/2,F10-1)</f>
-        <v>1.9842169515864165</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
+      <c r="G31" s="17">
+        <f>_xlfn.T.DIST($G$29, G27-1, TRUE)</f>
+        <v>0.81484786089159877</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="17">
+        <f>1 - _xlfn.T.DIST($G$29, G27-1, TRUE)</f>
+        <v>0.18515213910840123</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="25">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="25">
-        <v>12.1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E29" s="13" t="s">
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="17">
+        <f>MIN(G31*2,G32*2)</f>
+        <v>0.37030427821680245</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F29">
-        <f>(F25-F22)/(F26/SQRT(F27))</f>
-        <v>0.90000000000000036</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31">
-        <f>_xlfn.T.DIST($F$29, F27-1, TRUE)</f>
-        <v>0.81484786089159877</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32">
-        <f>1 - _xlfn.T.DIST($F$29, F27-1, TRUE)</f>
-        <v>0.18515213910840123</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33">
-        <f>MIN(F31*2,F32*2)</f>
-        <v>0.37030427821680245</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>62</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B12:F12"/>
+  <mergeCells count="18">
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1717,7 +1877,7 @@
   <dimension ref="B2:P43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="D25" sqref="D25:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1725,166 +1885,186 @@
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="D2" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="13">
         <v>0.95</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="J4" s="31" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D5" s="13" t="s">
-        <v>39</v>
+      <c r="D5" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="E5">
         <f>1-E4</f>
         <v>5.0000000000000044E-2</v>
       </c>
+      <c r="J5" s="32" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D6" s="11"/>
+      <c r="D6" s="7"/>
+      <c r="J6" s="33" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="9"/>
+      <c r="D7" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="J7" s="34"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D8" s="15"/>
+      <c r="D8" s="11"/>
+      <c r="J8" s="32" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C9" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19">
+      <c r="C9" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="13">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C10" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19">
+      <c r="J9" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="13">
         <v>100</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N10" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="E11" s="11"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D12" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="16"/>
+      <c r="D12" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="29"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D13" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="17">
         <f>E9/E10</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D14" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="17">
         <f>SQRT(E13*(1-E13)/E10)</f>
         <v>0.04</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D16" s="11"/>
-      <c r="P16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="P16" s="5"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D17" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="D17" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="17">
         <f>$E$13-_xlfn.NORM.INV(1-$E$5/2,0,1)*$E$14</f>
         <v>0.12160144061839787</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="17">
         <f>$E$13+_xlfn.NORM.INV(1-$E$5/2,0,1)*$E$14</f>
         <v>0.27839855938160218</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G20" s="8" t="s">
-        <v>74</v>
+      <c r="G20" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D21" s="11"/>
+      <c r="D21" s="7"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D22" s="11" t="s">
-        <v>75</v>
+      <c r="D22" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="E22">
         <f>_xlfn.NORM.INV(1-$E$5/2,0,1)</f>
@@ -1892,170 +2072,167 @@
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D24" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="D24" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D25" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="D25" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="19">
+      <c r="B27" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="13">
         <v>0.3</v>
       </c>
       <c r="G27" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D29" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="9"/>
+      <c r="D29" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="24"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D30" s="15"/>
+      <c r="D30" s="11"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C31" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19">
+      <c r="C31" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="13">
         <v>20</v>
       </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C32" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="19">
+      <c r="C32" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="13">
         <v>100</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E33" s="11"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D34" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" s="16"/>
+      <c r="D34" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="29"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D35" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35">
+      <c r="D35" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="17">
         <f>E31/E32</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D36" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36">
+      <c r="D36" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="17">
         <f>SQRT(E35*(1-E35)/E32)</f>
         <v>0.04</v>
       </c>
       <c r="G36" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D37" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E37">
+      <c r="D37" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="17">
         <f>(E35-E27)/E36</f>
         <v>-2.4999999999999996</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D38" s="11"/>
+      <c r="D38" s="7"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D39" s="11"/>
+      <c r="D39" s="7"/>
       <c r="G39" s="1"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41">
+      <c r="B41" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="17">
         <f>_xlfn.NORM.DIST($E$37,0,1,TRUE)</f>
         <v>6.2096653257761383E-3</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" s="22"/>
-      <c r="E42">
+      <c r="B42" s="17"/>
+      <c r="C42" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="28"/>
+      <c r="E42" s="17">
         <f>1 - _xlfn.NORM.DIST($E$37,0,1,TRUE)</f>
         <v>0.99379033467422384</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="17"/>
+      <c r="C43" s="28" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="22"/>
-      <c r="E43">
+      <c r="D43" s="28"/>
+      <c r="E43" s="17">
         <f>MIN(E41*2,E42*2)</f>
         <v>1.2419330651552277E-2</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B27:D27"/>
@@ -2068,6 +2245,11 @@
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2078,7 +2260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458CA095-DFB3-48F9-BBC6-94B51A735AB9}">
   <dimension ref="C4:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -2086,47 +2268,47 @@
   <sheetData>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="29" t="s">
-        <v>88</v>
+      <c r="C7" s="20" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
@@ -2134,7 +2316,7 @@
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/c3-inferência/cap3-inferencia.xlsx
+++ b/c3-inferência/cap3-inferencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedrocruz\Documents\GitHub\bioestatistica-ua\c3-inferência\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DB520E-574B-4018-BFEB-9E2D78695E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6409298B-6433-4D58-8CE0-4296B176AB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dist N(0,1)" sheetId="1" r:id="rId1"/>
@@ -556,7 +556,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -596,32 +596,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -659,6 +638,33 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -956,16 +962,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="23"/>
+      <c r="C2" s="39"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="37"/>
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -980,10 +986,10 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="22"/>
+      <c r="C8" s="38"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -998,10 +1004,10 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="22"/>
+      <c r="C11" s="38"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -1043,26 +1049,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="37"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -1077,10 +1083,10 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="38"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -1092,10 +1098,10 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="22"/>
+      <c r="C12" s="38"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
@@ -1128,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DAEAD8E-CFDC-42CE-B69B-75F6AFBC50AB}">
   <dimension ref="B2:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,37 +1144,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="40"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
@@ -1192,10 +1198,10 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="22"/>
+      <c r="C11" s="38"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -1235,7 +1241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBA85D7-9C63-4E22-A4EF-A5C42C686304}">
   <dimension ref="C2:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -1247,26 +1253,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C4" s="14" t="s">
@@ -1278,7 +1284,7 @@
       <c r="F4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="24" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1291,14 +1297,14 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="25" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="7"/>
       <c r="F6" s="1"/>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="26" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1307,7 +1313,7 @@
         <v>33</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="I7" s="34"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C8" s="15" t="s">
@@ -1317,7 +1323,7 @@
         <v>12.1</v>
       </c>
       <c r="F8" s="10"/>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="25" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1329,7 +1335,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="25" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1341,7 +1347,7 @@
         <v>100</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="I10" s="35" t="s">
+      <c r="I10" s="28" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1382,41 +1388,41 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="43">
+      <c r="D16" s="36">
         <f>_xlfn.NORM.INV(1-D5/2,0,1)</f>
         <v>1.9599639845400536</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C22" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="23">
         <v>11.2</v>
       </c>
     </row>
@@ -1429,7 +1435,7 @@
       <c r="C25" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="23">
         <v>12.1</v>
       </c>
     </row>
@@ -1437,7 +1443,7 @@
       <c r="C26" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="23">
         <v>10</v>
       </c>
     </row>
@@ -1445,7 +1451,7 @@
       <c r="C27" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="23">
         <v>100</v>
       </c>
     </row>
@@ -1528,47 +1534,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
     </row>
     <row r="3" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
     </row>
     <row r="4" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
       <c r="G4" s="18">
         <v>0.95</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="L4" s="29" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1581,71 +1587,71 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="6" spans="3:18" x14ac:dyDescent="0.25">
       <c r="F6" s="7"/>
       <c r="I6" s="1"/>
-      <c r="L6" s="38" t="s">
+      <c r="L6" s="31" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="7" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
       <c r="I7" s="1"/>
-      <c r="L7" s="39"/>
+      <c r="L7" s="32"/>
     </row>
     <row r="8" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="18">
         <v>12.1</v>
       </c>
       <c r="I8" s="10"/>
-      <c r="L8" s="37" t="s">
+      <c r="L8" s="30" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="9" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="18">
         <v>10</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="L9" s="37" t="s">
+      <c r="L9" s="30" t="s">
         <v>94</v>
       </c>
       <c r="R9" s="5"/>
     </row>
     <row r="10" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="18">
         <v>100</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="L10" s="40" t="s">
+      <c r="L10" s="33" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1653,20 +1659,20 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
       <c r="H12" s="19"/>
     </row>
     <row r="13" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="28"/>
+      <c r="F13" s="42"/>
       <c r="G13" s="17">
         <f>G8-_xlfn.CONFIDENCE.T(1-G4,G9,G10)</f>
         <v>10.115783048413583</v>
@@ -1676,10 +1682,10 @@
       </c>
     </row>
     <row r="14" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="28"/>
+      <c r="F14" s="42"/>
       <c r="G14" s="17">
         <f>G8+_xlfn.CONFIDENCE.T(1-G4,G9,G10)</f>
         <v>14.084216951586416</v>
@@ -1689,15 +1695,15 @@
       </c>
     </row>
     <row r="15" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="17">
         <f>_xlfn.T.INV(1-G5/2,G10-1)</f>
         <v>1.9842169515864165</v>
@@ -1707,82 +1713,82 @@
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="18">
         <v>11.2</v>
       </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="18">
         <v>12.1</v>
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
       <c r="G26" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
       <c r="G27" s="18">
         <v>100</v>
       </c>
@@ -1791,10 +1797,10 @@
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="F29" s="42" t="s">
+      <c r="F29" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="43">
+      <c r="G29" s="36">
         <f>(G25-G22)/(G26/SQRT(G27))</f>
         <v>0.90000000000000036</v>
       </c>
@@ -1849,24 +1855,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E16:F16"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C24:G24"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C3:L3"/>
     <mergeCell ref="C19:L19"/>
     <mergeCell ref="C20:L20"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C24:G24"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1877,38 +1883,40 @@
   <dimension ref="B2:P43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:J25"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
     <col min="10" max="10" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="23" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D4" s="12" t="s">
@@ -1921,7 +1929,7 @@
       <c r="G4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="24" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1933,53 +1941,53 @@
         <f>1-E4</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="25" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D6" s="7"/>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="26" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="J7" s="34"/>
+      <c r="E7" s="40"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D8" s="11"/>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="25" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="26"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="13">
         <v>20</v>
       </c>
-      <c r="J9" s="32" t="s">
+      <c r="J9" s="25" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="26"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="13">
         <v>100</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="35" t="s">
+      <c r="J10" s="28" t="s">
         <v>95</v>
       </c>
       <c r="N10" s="5"/>
@@ -1988,13 +1996,15 @@
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D12" s="29" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="29"/>
+      <c r="E12" s="43"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D13" s="16" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="22" t="s">
         <v>62</v>
       </c>
       <c r="E13" s="17">
@@ -2003,7 +2013,8 @@
       </c>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D14" s="16" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="22" t="s">
         <v>68</v>
       </c>
       <c r="E14" s="17">
@@ -2022,14 +2033,16 @@
       <c r="P16" s="5"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D17" s="24" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="17"/>
       <c r="D18" s="16" t="s">
         <v>28</v>
       </c>
@@ -2042,6 +2055,7 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="17"/>
       <c r="D19" s="16" t="s">
         <v>29</v>
       </c>
@@ -2072,33 +2086,35 @@
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D24" s="23" t="s">
+      <c r="C24" s="21"/>
+      <c r="D24" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D25" s="44" t="s">
+      <c r="C25" s="21"/>
+      <c r="D25" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="13">
         <v>0.3</v>
       </c>
@@ -2107,10 +2123,10 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="24"/>
+      <c r="E29" s="40"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
@@ -2118,20 +2134,20 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="26"/>
+      <c r="D31" s="45"/>
       <c r="E31" s="13">
         <v>20</v>
       </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="27"/>
+      <c r="D32" s="44"/>
       <c r="E32" s="13">
         <v>100</v>
       </c>
@@ -2143,12 +2159,14 @@
       <c r="E33" s="7"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D34" s="29" t="s">
+      <c r="C34" s="17"/>
+      <c r="D34" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="E34" s="29"/>
+      <c r="E34" s="43"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="17"/>
       <c r="D35" s="16" t="s">
         <v>62</v>
       </c>
@@ -2158,6 +2176,7 @@
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="17"/>
       <c r="D36" s="16" t="s">
         <v>68</v>
       </c>
@@ -2170,6 +2189,7 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="17"/>
       <c r="D37" s="16" t="s">
         <v>76</v>
       </c>
@@ -2190,11 +2210,11 @@
       <c r="G39" s="1"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
       <c r="E41" s="17">
         <f>_xlfn.NORM.DIST($E$37,0,1,TRUE)</f>
         <v>6.2096653257761383E-3</v>
@@ -2205,10 +2225,10 @@
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="17"/>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="28"/>
+      <c r="D42" s="42"/>
       <c r="E42" s="17">
         <f>1 - _xlfn.NORM.DIST($E$37,0,1,TRUE)</f>
         <v>0.99379033467422384</v>
@@ -2219,10 +2239,10 @@
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="17"/>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="28"/>
+      <c r="D43" s="42"/>
       <c r="E43" s="17">
         <f>MIN(E41*2,E42*2)</f>
         <v>1.2419330651552277E-2</v>
@@ -2233,8 +2253,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D34:E34"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="D2:J2"/>
@@ -2245,11 +2263,13 @@
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C43:D43"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/c3-inferência/cap3-inferencia.xlsx
+++ b/c3-inferência/cap3-inferencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedrocruz\Documents\GitHub\bioestatistica-ua\c3-inferência\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6409298B-6433-4D58-8CE0-4296B176AB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E969D1E-2B3E-4EDD-AEDF-CD12A8B59AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dist N(0,1)" sheetId="1" r:id="rId1"/>
@@ -656,17 +656,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -955,25 +955,25 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="35.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="35.54296875" customWidth="1"/>
+    <col min="3" max="3" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" s="39" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="39"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="37" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="37"/>
     </row>
-    <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -985,13 +985,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="38" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="38"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1003,13 +1003,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="38" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="38"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C18" s="5"/>
     </row>
   </sheetData>
@@ -1043,12 +1043,12 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" s="39" t="s">
         <v>7</v>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" s="39" t="s">
         <v>6</v>
       </c>
@@ -1064,13 +1064,13 @@
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="37" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="37"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1082,13 +1082,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" s="38" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="38"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1097,13 +1097,13 @@
         <v>2.2621571627982049</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="38" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="38"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1112,10 +1112,10 @@
         <v>-2.2621571627982053</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C16" s="3"/>
     </row>
   </sheetData>
@@ -1134,16 +1134,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DAEAD8E-CFDC-42CE-B69B-75F6AFBC50AB}">
   <dimension ref="B2:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" s="39" t="s">
         <v>7</v>
       </c>
@@ -1152,7 +1152,7 @@
       <c r="E2" s="39"/>
       <c r="F2" s="39"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" s="39" t="s">
         <v>9</v>
       </c>
@@ -1161,7 +1161,7 @@
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="39" t="s">
         <v>10</v>
       </c>
@@ -1170,13 +1170,13 @@
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" s="40" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="40"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
@@ -1197,13 +1197,13 @@
         <v>0.84186666745408922</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="38" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="38"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>2.0879007358707273</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>21.66599433346191</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
     </row>
   </sheetData>
@@ -1241,18 +1241,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBA85D7-9C63-4E22-A4EF-A5C42C686304}">
   <dimension ref="C2:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" customWidth="1"/>
+    <col min="9" max="9" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C2" s="39" t="s">
         <v>96</v>
       </c>
@@ -1263,7 +1263,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
     </row>
-    <row r="3" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C3" s="39" t="s">
         <v>48</v>
       </c>
@@ -1274,7 +1274,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C4" s="14" t="s">
         <v>30</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C5" s="9" t="s">
         <v>38</v>
       </c>
@@ -1301,21 +1301,21 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C6" s="7"/>
       <c r="F6" s="1"/>
       <c r="I6" s="26" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C7" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="1"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C8" s="15" t="s">
         <v>31</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C9" s="15" t="s">
         <v>55</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="15" t="s">
         <v>35</v>
       </c>
@@ -1351,16 +1351,16 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C12" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="17"/>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C13" s="16" t="s">
         <v>28</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C14" s="16" t="s">
         <v>29</v>
       </c>
@@ -1384,10 +1384,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:9" x14ac:dyDescent="0.35">
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C16" s="35" t="s">
         <v>37</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>1.9599639845400536</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C19" s="39" t="s">
         <v>99</v>
       </c>
@@ -1407,7 +1407,7 @@
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C20" s="39" t="s">
         <v>47</v>
       </c>
@@ -1418,89 +1418,89 @@
       <c r="H20" s="39"/>
       <c r="I20" s="39"/>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C22" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="23">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C24" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C25" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D25" s="23">
-        <v>12.1</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C26" s="15" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C27" s="15" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="23">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C29" s="16" t="s">
         <v>41</v>
       </c>
       <c r="D29" s="17">
         <f>(D25-D22)/(D26/SQRT(D27))</f>
-        <v>0.90000000000000036</v>
+        <v>0.26516504294495402</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C31" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="17">
         <f>_xlfn.NORM.DIST($D$29, 0, 1, TRUE)</f>
-        <v>0.81593987465324058</v>
+        <v>0.60455883852968739</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C32" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="17">
         <f>1 - _xlfn.NORM.DIST($D$29, 0, 1, TRUE)</f>
-        <v>0.18406012534675942</v>
+        <v>0.39544116147031261</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C33" s="16" t="s">
         <v>45</v>
       </c>
       <c r="D33" s="17">
         <f>MIN(D31*2,D32*2)</f>
-        <v>0.36812025069351884</v>
+        <v>0.79088232294062522</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>58</v>
@@ -1526,14 +1526,14 @@
       <selection activeCell="C20" sqref="C20:L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C2" s="39" t="s">
         <v>97</v>
       </c>
@@ -1547,7 +1547,7 @@
       <c r="K2" s="39"/>
       <c r="L2" s="39"/>
     </row>
-    <row r="3" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C3" s="39" t="s">
         <v>49</v>
       </c>
@@ -1561,7 +1561,7 @@
       <c r="K3" s="39"/>
       <c r="L3" s="39"/>
     </row>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C4" s="41" t="s">
         <v>30</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:18" x14ac:dyDescent="0.35">
       <c r="F5" s="16" t="s">
         <v>38</v>
       </c>
@@ -1591,14 +1591,14 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:18" x14ac:dyDescent="0.35">
       <c r="F6" s="7"/>
       <c r="I6" s="1"/>
       <c r="L6" s="31" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C7" s="40" t="s">
         <v>33</v>
       </c>
@@ -1609,7 +1609,7 @@
       <c r="I7" s="1"/>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C8" s="41" t="s">
         <v>31</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C9" s="41" t="s">
         <v>34</v>
       </c>
@@ -1640,7 +1640,7 @@
       </c>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="41" t="s">
         <v>35</v>
       </c>
@@ -1655,10 +1655,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:18" x14ac:dyDescent="0.35">
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C12" s="40" t="s">
         <v>50</v>
       </c>
@@ -1668,7 +1668,7 @@
       <c r="G12" s="40"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:18" x14ac:dyDescent="0.35">
       <c r="E13" s="42" t="s">
         <v>28</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:18" x14ac:dyDescent="0.35">
       <c r="E14" s="42" t="s">
         <v>29</v>
       </c>
@@ -1694,12 +1694,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:18" x14ac:dyDescent="0.35">
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:18" x14ac:dyDescent="0.35">
       <c r="E16" s="42" t="s">
         <v>51</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C19" s="39" t="s">
         <v>100</v>
       </c>
@@ -1726,7 +1726,7 @@
       <c r="K19" s="39"/>
       <c r="L19" s="39"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C20" s="39" t="s">
         <v>53</v>
       </c>
@@ -1740,7 +1740,7 @@
       <c r="K20" s="39"/>
       <c r="L20" s="39"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C22" s="41" t="s">
         <v>40</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C24" s="40" t="s">
         <v>33</v>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C25" s="41" t="s">
         <v>31</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C26" s="41" t="s">
         <v>34</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C27" s="41" t="s">
         <v>35</v>
       </c>
@@ -1793,10 +1793,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
       <c r="F29" s="35" t="s">
         <v>54</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
@@ -1823,7 +1823,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
@@ -1838,7 +1838,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
@@ -1855,11 +1855,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C24:G24"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C3:L3"/>
     <mergeCell ref="C19:L19"/>
@@ -1873,6 +1868,11 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1886,15 +1886,15 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:16" x14ac:dyDescent="0.35">
       <c r="C2" s="21"/>
       <c r="D2" s="39" t="s">
         <v>98</v>
@@ -1906,7 +1906,7 @@
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
     </row>
-    <row r="3" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C3" s="21"/>
       <c r="D3" s="39" t="s">
         <v>59</v>
@@ -1918,7 +1918,7 @@
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
     </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D4" s="12" t="s">
         <v>30</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D5" s="9" t="s">
         <v>38</v>
       </c>
@@ -1945,30 +1945,30 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D6" s="7"/>
       <c r="J6" s="26" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D7" s="40" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="40"/>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D8" s="11"/>
       <c r="J8" s="25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C9" s="45" t="s">
+    <row r="9" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C9" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="45"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="13">
         <v>20</v>
       </c>
@@ -1976,11 +1976,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="45" t="s">
+    <row r="10" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="13">
         <v>100</v>
       </c>
@@ -1992,17 +1992,17 @@
       </c>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.35">
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:16" x14ac:dyDescent="0.35">
       <c r="C12" s="17"/>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="43"/>
-    </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E12" s="46"/>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.35">
       <c r="C13" s="17"/>
       <c r="D13" s="22" t="s">
         <v>62</v>
@@ -2012,7 +2012,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:16" x14ac:dyDescent="0.35">
       <c r="C14" s="17"/>
       <c r="D14" s="22" t="s">
         <v>68</v>
@@ -2025,14 +2025,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:16" x14ac:dyDescent="0.35">
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D16" s="7"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C17" s="17"/>
       <c r="D17" s="40" t="s">
         <v>64</v>
@@ -2041,7 +2041,7 @@
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C18" s="17"/>
       <c r="D18" s="16" t="s">
         <v>28</v>
@@ -2054,7 +2054,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C19" s="17"/>
       <c r="D19" s="16" t="s">
         <v>29</v>
@@ -2067,16 +2067,16 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="G20" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D21" s="7"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D22" s="7" t="s">
         <v>70</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>1.9599639845400536</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C24" s="21"/>
       <c r="D24" s="39" t="s">
         <v>101</v>
@@ -2097,24 +2097,24 @@
       <c r="I24" s="39"/>
       <c r="J24" s="39"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C25" s="21"/>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="44" t="s">
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="13">
         <v>0.3</v>
       </c>
@@ -2122,32 +2122,32 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D29" s="40" t="s">
         <v>33</v>
       </c>
       <c r="E29" s="40"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D30" s="11"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C31" s="45" t="s">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C31" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="45"/>
+      <c r="D31" s="44"/>
       <c r="E31" s="13">
         <v>20</v>
       </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C32" s="44" t="s">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C32" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="44"/>
+      <c r="D32" s="43"/>
       <c r="E32" s="13">
         <v>100</v>
       </c>
@@ -2155,17 +2155,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C34" s="17"/>
-      <c r="D34" s="43" t="s">
+      <c r="D34" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="E34" s="43"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E34" s="46"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C35" s="17"/>
       <c r="D35" s="16" t="s">
         <v>62</v>
@@ -2175,7 +2175,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C36" s="17"/>
       <c r="D36" s="16" t="s">
         <v>68</v>
@@ -2188,7 +2188,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C37" s="17"/>
       <c r="D37" s="16" t="s">
         <v>76</v>
@@ -2201,15 +2201,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D38" s="7"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D39" s="7"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41" s="42" t="s">
         <v>39</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42" s="17"/>
       <c r="C42" s="42" t="s">
         <v>46</v>
@@ -2237,7 +2237,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43" s="17"/>
       <c r="C43" s="42" t="s">
         <v>45</v>
@@ -2253,6 +2253,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="D2:J2"/>
@@ -2263,13 +2270,6 @@
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2284,57 +2284,57 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C7" s="20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C16" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E20" t="s">
         <v>89</v>
       </c>
